--- a/OnBoard/output/trust/bio/Bio_Trust_28.xlsx
+++ b/OnBoard/output/trust/bio/Bio_Trust_28.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q246"/>
+  <dimension ref="A1:Q241"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -447,7 +447,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -462,12 +462,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>TRIGLUC</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F2">
@@ -477,14 +477,19 @@
         <v>1</v>
       </c>
       <c r="H2">
-        <v>247</v>
+        <v>28</v>
       </c>
       <c r="I2">
-        <v>-1</v>
+        <v>36</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>FROSQ-2</t>
         </is>
       </c>
       <c r="L2">
@@ -494,7 +499,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -509,12 +514,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>TRIGLUC</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F3">
@@ -524,14 +529,14 @@
         <v>1</v>
       </c>
       <c r="H3">
-        <v>197</v>
+        <v>28</v>
       </c>
       <c r="I3">
-        <v>-1</v>
+        <v>35</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L3">
@@ -541,7 +546,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -556,12 +561,12 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>TRIGLUC</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F4">
@@ -571,14 +576,19 @@
         <v>1</v>
       </c>
       <c r="H4">
-        <v>210</v>
+        <v>30</v>
       </c>
       <c r="I4">
-        <v>-1</v>
+        <v>49</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>FROSQ-2</t>
         </is>
       </c>
       <c r="L4">
@@ -588,7 +598,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -603,12 +613,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>GOBINIG</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F5">
@@ -618,14 +628,14 @@
         <v>1</v>
       </c>
       <c r="H5">
-        <v>120</v>
+        <v>22</v>
       </c>
       <c r="I5">
-        <v>-1</v>
+        <v>17</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L5">
@@ -635,7 +645,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -650,12 +660,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>GOBINIG</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F6">
@@ -665,14 +675,14 @@
         <v>1</v>
       </c>
       <c r="H6">
-        <v>127</v>
+        <v>25</v>
       </c>
       <c r="I6">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L6">
@@ -682,7 +692,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -697,12 +707,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>GOBISUE</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F7">
@@ -712,14 +722,14 @@
         <v>1</v>
       </c>
       <c r="H7">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="I7">
-        <v>-1</v>
+        <v>23</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L7">
@@ -729,7 +739,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -744,12 +754,12 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F8">
@@ -759,14 +769,19 @@
         <v>1</v>
       </c>
       <c r="H8">
-        <v>111</v>
+        <v>22</v>
       </c>
       <c r="I8">
-        <v>-1</v>
+        <v>22</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>FROSQ-2</t>
         </is>
       </c>
       <c r="L8">
@@ -776,7 +791,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -791,12 +806,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F9">
@@ -806,14 +821,19 @@
         <v>1</v>
       </c>
       <c r="H9">
-        <v>81</v>
+        <v>26</v>
       </c>
       <c r="I9">
-        <v>-1</v>
+        <v>25</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>FROSQ-2</t>
         </is>
       </c>
       <c r="L9">
@@ -823,7 +843,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -838,12 +858,12 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F10">
@@ -853,19 +873,14 @@
         <v>1</v>
       </c>
       <c r="H10">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I10">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>FROSQ-2</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L10">
@@ -875,7 +890,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -890,12 +905,12 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F11">
@@ -905,10 +920,10 @@
         <v>1</v>
       </c>
       <c r="H11">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="I11">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -922,7 +937,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -937,12 +952,12 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F12">
@@ -952,19 +967,14 @@
         <v>1</v>
       </c>
       <c r="H12">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I12">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>FROSQ-1</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L12">
@@ -974,7 +984,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -989,12 +999,12 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>CHLAGLA</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F13">
@@ -1004,14 +1014,14 @@
         <v>1</v>
       </c>
       <c r="H13">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="I13">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L13">
@@ -1021,7 +1031,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1036,12 +1046,12 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>TRACMED</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F14">
@@ -1051,14 +1061,14 @@
         <v>1</v>
       </c>
       <c r="H14">
-        <v>201</v>
+        <v>31</v>
       </c>
       <c r="I14">
-        <v>-1</v>
+        <v>17</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L14">
@@ -1068,7 +1078,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1083,12 +1093,12 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F15">
@@ -1098,19 +1108,14 @@
         <v>1</v>
       </c>
       <c r="H15">
-        <v>246</v>
+        <v>32</v>
       </c>
       <c r="I15">
-        <v>127</v>
+        <v>19</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
           <t>M</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>HOLRM-2</t>
         </is>
       </c>
       <c r="L15">
@@ -1120,7 +1125,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1135,12 +1140,12 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F16">
@@ -1150,19 +1155,14 @@
         <v>1</v>
       </c>
       <c r="H16">
-        <v>251</v>
+        <v>32</v>
       </c>
       <c r="I16">
-        <v>113</v>
+        <v>20</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
           <t>M</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>HOLRM-2</t>
         </is>
       </c>
       <c r="L16">
@@ -1172,7 +1172,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1187,12 +1187,12 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F17">
@@ -1202,19 +1202,14 @@
         <v>1</v>
       </c>
       <c r="H17">
-        <v>245</v>
+        <v>30</v>
       </c>
       <c r="I17">
-        <v>123</v>
+        <v>16</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>HOLRA-2</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L17">
@@ -1224,7 +1219,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1239,12 +1234,12 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F18">
@@ -1254,19 +1249,14 @@
         <v>1</v>
       </c>
       <c r="H18">
-        <v>247</v>
+        <v>31</v>
       </c>
       <c r="I18">
-        <v>133</v>
+        <v>22</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>HOLRA-2</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L18">
@@ -1276,7 +1266,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1291,12 +1281,12 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F19">
@@ -1306,19 +1296,14 @@
         <v>1</v>
       </c>
       <c r="H19">
-        <v>235</v>
+        <v>30</v>
       </c>
       <c r="I19">
-        <v>111</v>
+        <v>18</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>HOLRA-2</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L19">
@@ -1328,7 +1313,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1343,12 +1328,12 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F20">
@@ -1358,19 +1343,14 @@
         <v>1</v>
       </c>
       <c r="H20">
-        <v>236</v>
+        <v>32</v>
       </c>
       <c r="I20">
-        <v>111</v>
+        <v>18</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>HOLRA-2</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L20">
@@ -1380,7 +1360,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1395,12 +1375,12 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F21">
@@ -1410,19 +1390,14 @@
         <v>1</v>
       </c>
       <c r="H21">
-        <v>244</v>
+        <v>34</v>
       </c>
       <c r="I21">
-        <v>125</v>
+        <v>25</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
           <t>M</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>HOLRM-2</t>
         </is>
       </c>
       <c r="L21">
@@ -1432,7 +1407,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1447,7 +1422,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1462,19 +1437,14 @@
         <v>1</v>
       </c>
       <c r="H22">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I22">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L22">
@@ -1484,7 +1454,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1499,7 +1469,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1514,10 +1484,10 @@
         <v>1</v>
       </c>
       <c r="H23">
+        <v>34</v>
+      </c>
+      <c r="I23">
         <v>25</v>
-      </c>
-      <c r="I23">
-        <v>9</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -1531,7 +1501,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1546,7 +1516,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1564,16 +1534,11 @@
         <v>32</v>
       </c>
       <c r="I24">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L24">
@@ -1583,7 +1548,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1598,7 +1563,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1613,10 +1578,10 @@
         <v>1</v>
       </c>
       <c r="H25">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I25">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -1630,7 +1595,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1645,7 +1610,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1660,19 +1625,14 @@
         <v>1</v>
       </c>
       <c r="H26">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I26">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L26">
@@ -1682,7 +1642,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1697,7 +1657,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1712,10 +1672,10 @@
         <v>1</v>
       </c>
       <c r="H27">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I27">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -1729,7 +1689,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1744,7 +1704,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1759,19 +1719,14 @@
         <v>1</v>
       </c>
       <c r="H28">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I28">
         <v>18</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L28">
@@ -1781,7 +1736,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1796,7 +1751,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1811,19 +1766,14 @@
         <v>1</v>
       </c>
       <c r="H29">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I29">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L29">
@@ -1833,7 +1783,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1848,7 +1798,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1863,10 +1813,10 @@
         <v>1</v>
       </c>
       <c r="H30">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I30">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -1880,7 +1830,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1895,7 +1845,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1910,19 +1860,14 @@
         <v>1</v>
       </c>
       <c r="H31">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I31">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L31">
@@ -1932,7 +1877,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1947,7 +1892,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1962,19 +1907,14 @@
         <v>1</v>
       </c>
       <c r="H32">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I32">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L32">
@@ -1984,7 +1924,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1999,7 +1939,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2014,19 +1954,14 @@
         <v>1</v>
       </c>
       <c r="H33">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="I33">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L33">
@@ -2036,7 +1971,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2051,7 +1986,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2069,7 +2004,7 @@
         <v>32</v>
       </c>
       <c r="I34">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -2083,7 +2018,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2098,7 +2033,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2113,10 +2048,10 @@
         <v>1</v>
       </c>
       <c r="H35">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I35">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
@@ -2130,7 +2065,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2145,7 +2080,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2160,10 +2095,10 @@
         <v>1</v>
       </c>
       <c r="H36">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I36">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
@@ -2177,7 +2112,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2192,7 +2127,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2207,10 +2142,10 @@
         <v>1</v>
       </c>
       <c r="H37">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I37">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
@@ -2224,7 +2159,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2239,7 +2174,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2254,10 +2189,10 @@
         <v>1</v>
       </c>
       <c r="H38">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="I38">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -2271,7 +2206,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2286,7 +2221,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2301,10 +2236,10 @@
         <v>1</v>
       </c>
       <c r="H39">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="I39">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
@@ -2313,7 +2248,7 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>MEDPF-1</t>
+          <t>MEDPF-2</t>
         </is>
       </c>
       <c r="L39">
@@ -2323,7 +2258,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2338,7 +2273,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2353,14 +2288,19 @@
         <v>1</v>
       </c>
       <c r="H40">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="I40">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>MEDPF-2</t>
         </is>
       </c>
       <c r="L40">
@@ -2370,7 +2310,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2385,7 +2325,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2400,10 +2340,10 @@
         <v>1</v>
       </c>
       <c r="H41">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="I41">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -2422,7 +2362,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2437,7 +2377,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2452,14 +2392,19 @@
         <v>1</v>
       </c>
       <c r="H42">
+        <v>40</v>
+      </c>
+      <c r="I42">
         <v>32</v>
       </c>
-      <c r="I42">
-        <v>19</v>
-      </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>MEDPF-2</t>
         </is>
       </c>
       <c r="L42">
@@ -2469,7 +2414,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2484,7 +2429,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2499,14 +2444,19 @@
         <v>1</v>
       </c>
       <c r="H43">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="I43">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L43">
@@ -2516,7 +2466,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2531,7 +2481,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2546,14 +2496,19 @@
         <v>1</v>
       </c>
       <c r="H44">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="I44">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L44">
@@ -2563,7 +2518,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2578,7 +2533,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2593,10 +2548,10 @@
         <v>1</v>
       </c>
       <c r="H45">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="I45">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
@@ -2615,7 +2570,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2630,7 +2585,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2645,14 +2600,19 @@
         <v>1</v>
       </c>
       <c r="H46">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="I46">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L46">
@@ -2662,7 +2622,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2677,7 +2637,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2692,14 +2652,19 @@
         <v>1</v>
       </c>
       <c r="H47">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="I47">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L47">
@@ -2709,7 +2674,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2724,7 +2689,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2739,10 +2704,10 @@
         <v>1</v>
       </c>
       <c r="H48">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="I48">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
@@ -2761,7 +2726,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2776,7 +2741,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2791,10 +2756,10 @@
         <v>1</v>
       </c>
       <c r="H49">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="I49">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
@@ -2813,7 +2778,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2828,7 +2793,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2843,10 +2808,10 @@
         <v>1</v>
       </c>
       <c r="H50">
+        <v>39</v>
+      </c>
+      <c r="I50">
         <v>30</v>
-      </c>
-      <c r="I50">
-        <v>13</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
@@ -2865,7 +2830,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2880,7 +2845,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2895,10 +2860,10 @@
         <v>1</v>
       </c>
       <c r="H51">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I51">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
@@ -2917,7 +2882,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2932,7 +2897,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2947,14 +2912,19 @@
         <v>1</v>
       </c>
       <c r="H52">
+        <v>35</v>
+      </c>
+      <c r="I52">
         <v>23</v>
       </c>
-      <c r="I52">
-        <v>10</v>
-      </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L52">
@@ -2964,7 +2934,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2979,7 +2949,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2994,14 +2964,19 @@
         <v>1</v>
       </c>
       <c r="H53">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="I53">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L53">
@@ -3011,7 +2986,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -3026,7 +3001,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -3041,10 +3016,10 @@
         <v>1</v>
       </c>
       <c r="H54">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I54">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
@@ -3058,12 +3033,17 @@
       </c>
       <c r="L54">
         <v>0</v>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>NA l inferred</t>
+        </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -3078,7 +3058,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -3093,14 +3073,19 @@
         <v>1</v>
       </c>
       <c r="H55">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="I55">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L55">
@@ -3110,7 +3095,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -3125,7 +3110,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -3140,14 +3125,19 @@
         <v>1</v>
       </c>
       <c r="H56">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="I56">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L56">
@@ -3157,7 +3147,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -3172,7 +3162,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -3187,14 +3177,19 @@
         <v>1</v>
       </c>
       <c r="H57">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="I57">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>MEDPF-2</t>
         </is>
       </c>
       <c r="L57">
@@ -3204,7 +3199,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -3219,7 +3214,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -3234,10 +3229,10 @@
         <v>1</v>
       </c>
       <c r="H58">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="I58">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
@@ -3256,7 +3251,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -3271,7 +3266,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -3286,10 +3281,10 @@
         <v>1</v>
       </c>
       <c r="H59">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="I59">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
@@ -3308,7 +3303,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -3323,7 +3318,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -3338,10 +3333,10 @@
         <v>1</v>
       </c>
       <c r="H60">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I60">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
@@ -3360,7 +3355,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -3375,7 +3370,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -3390,14 +3385,19 @@
         <v>1</v>
       </c>
       <c r="H61">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="I61">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L61">
@@ -3407,7 +3407,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -3422,7 +3422,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -3437,10 +3437,10 @@
         <v>1</v>
       </c>
       <c r="H62">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I62">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
@@ -3459,7 +3459,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -3474,7 +3474,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3489,10 +3489,10 @@
         <v>1</v>
       </c>
       <c r="H63">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="I63">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
@@ -3511,7 +3511,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -3526,7 +3526,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3541,10 +3541,10 @@
         <v>1</v>
       </c>
       <c r="H64">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="I64">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
@@ -3563,7 +3563,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -3578,7 +3578,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3593,10 +3593,10 @@
         <v>1</v>
       </c>
       <c r="H65">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="I65">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
@@ -3615,7 +3615,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -3630,7 +3630,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3645,14 +3645,19 @@
         <v>1</v>
       </c>
       <c r="H66">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="I66">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L66">
@@ -3662,7 +3667,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -3677,7 +3682,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3692,10 +3697,10 @@
         <v>1</v>
       </c>
       <c r="H67">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="I67">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
@@ -3714,7 +3719,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -3729,7 +3734,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3744,10 +3749,10 @@
         <v>1</v>
       </c>
       <c r="H68">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="I68">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
@@ -3766,7 +3771,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -3781,7 +3786,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -3796,10 +3801,10 @@
         <v>1</v>
       </c>
       <c r="H69">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="I69">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
@@ -3818,7 +3823,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -3833,7 +3838,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -3848,14 +3853,19 @@
         <v>1</v>
       </c>
       <c r="H70">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="I70">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L70">
@@ -3865,7 +3875,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -3880,7 +3890,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -3895,10 +3905,10 @@
         <v>1</v>
       </c>
       <c r="H71">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I71">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
@@ -3917,7 +3927,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -3932,7 +3942,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -3947,10 +3957,10 @@
         <v>1</v>
       </c>
       <c r="H72">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="I72">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
@@ -3969,7 +3979,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -3984,7 +3994,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -3999,10 +4009,10 @@
         <v>1</v>
       </c>
       <c r="H73">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I73">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
@@ -4021,7 +4031,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -4036,7 +4046,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -4051,10 +4061,10 @@
         <v>1</v>
       </c>
       <c r="H74">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="I74">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J74" t="inlineStr">
         <is>
@@ -4073,7 +4083,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -4088,7 +4098,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -4103,10 +4113,10 @@
         <v>1</v>
       </c>
       <c r="H75">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I75">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="J75" t="inlineStr">
         <is>
@@ -4125,7 +4135,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -4140,7 +4150,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -4155,10 +4165,10 @@
         <v>1</v>
       </c>
       <c r="H76">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I76">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="J76" t="inlineStr">
         <is>
@@ -4177,7 +4187,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -4192,7 +4202,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -4207,14 +4217,19 @@
         <v>1</v>
       </c>
       <c r="H77">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="I77">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L77">
@@ -4224,7 +4239,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -4239,7 +4254,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -4254,14 +4269,19 @@
         <v>1</v>
       </c>
       <c r="H78">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="I78">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L78">
@@ -4271,7 +4291,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -4286,7 +4306,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -4301,14 +4321,19 @@
         <v>1</v>
       </c>
       <c r="H79">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="I79">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L79">
@@ -4318,7 +4343,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -4333,7 +4358,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -4348,14 +4373,19 @@
         <v>1</v>
       </c>
       <c r="H80">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="I80">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L80">
@@ -4365,7 +4395,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -4380,7 +4410,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -4395,10 +4425,10 @@
         <v>1</v>
       </c>
       <c r="H81">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I81">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J81" t="inlineStr">
         <is>
@@ -4417,7 +4447,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -4432,7 +4462,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -4447,14 +4477,19 @@
         <v>1</v>
       </c>
       <c r="H82">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="I82">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L82">
@@ -4464,7 +4499,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -4479,12 +4514,12 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F83">
@@ -4497,7 +4532,7 @@
         <v>28</v>
       </c>
       <c r="I83">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="J83" t="inlineStr">
         <is>
@@ -4506,7 +4541,7 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>MEDPF-1</t>
+          <t>FROSQ-2</t>
         </is>
       </c>
       <c r="L83">
@@ -4516,7 +4551,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -4531,12 +4566,12 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F84">
@@ -4546,7 +4581,7 @@
         <v>1</v>
       </c>
       <c r="H84">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="I84">
         <v>19</v>
@@ -4558,7 +4593,7 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>MEDPF-1</t>
+          <t>FROSQ-2</t>
         </is>
       </c>
       <c r="L84">
@@ -4568,7 +4603,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -4583,12 +4618,12 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F85">
@@ -4598,10 +4633,10 @@
         <v>1</v>
       </c>
       <c r="H85">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I85">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="J85" t="inlineStr">
         <is>
@@ -4615,7 +4650,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -4630,12 +4665,12 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>GOBINIG</t>
         </is>
       </c>
       <c r="F86">
@@ -4645,19 +4680,14 @@
         <v>1</v>
       </c>
       <c r="H86">
-        <v>30</v>
+        <v>115</v>
       </c>
       <c r="I86">
-        <v>16</v>
+        <v>-1</v>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L86">
@@ -4667,7 +4697,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -4682,12 +4712,12 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F87">
@@ -4697,19 +4727,14 @@
         <v>1</v>
       </c>
       <c r="H87">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="I87">
-        <v>16</v>
+        <v>-1</v>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L87">
@@ -4719,7 +4744,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -4734,12 +4759,12 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F88">
@@ -4749,19 +4774,14 @@
         <v>1</v>
       </c>
       <c r="H88">
-        <v>29</v>
+        <v>105</v>
       </c>
       <c r="I88">
-        <v>13</v>
+        <v>-1</v>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L88">
@@ -4771,7 +4791,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -4786,12 +4806,12 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F89">
@@ -4801,14 +4821,14 @@
         <v>1</v>
       </c>
       <c r="H89">
-        <v>30</v>
+        <v>131</v>
       </c>
       <c r="I89">
-        <v>18</v>
+        <v>-1</v>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L89">
@@ -4818,7 +4838,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -4833,12 +4853,12 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>CITHMAC</t>
         </is>
       </c>
       <c r="F90">
@@ -4848,14 +4868,14 @@
         <v>1</v>
       </c>
       <c r="H90">
-        <v>31</v>
+        <v>118</v>
       </c>
       <c r="I90">
-        <v>18</v>
+        <v>-1</v>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L90">
@@ -4865,7 +4885,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -4880,12 +4900,12 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>CITHMAC</t>
         </is>
       </c>
       <c r="F91">
@@ -4895,19 +4915,14 @@
         <v>1</v>
       </c>
       <c r="H91">
-        <v>29</v>
+        <v>152</v>
       </c>
       <c r="I91">
-        <v>16</v>
+        <v>-1</v>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L91">
@@ -4917,7 +4932,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -4932,12 +4947,12 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>CITHMAC</t>
         </is>
       </c>
       <c r="F92">
@@ -4947,19 +4962,14 @@
         <v>1</v>
       </c>
       <c r="H92">
-        <v>35</v>
+        <v>140</v>
       </c>
       <c r="I92">
-        <v>23</v>
+        <v>-1</v>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L92">
@@ -4969,7 +4979,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -4984,12 +4994,12 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>CITHMAC</t>
         </is>
       </c>
       <c r="F93">
@@ -4999,19 +5009,14 @@
         <v>1</v>
       </c>
       <c r="H93">
-        <v>32</v>
+        <v>135</v>
       </c>
       <c r="I93">
-        <v>21</v>
+        <v>-1</v>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L93">
@@ -5021,7 +5026,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -5036,12 +5041,12 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>TRIGLUC</t>
         </is>
       </c>
       <c r="F94">
@@ -5051,19 +5056,14 @@
         <v>1</v>
       </c>
       <c r="H94">
-        <v>30</v>
+        <v>112</v>
       </c>
       <c r="I94">
-        <v>16</v>
+        <v>-1</v>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L94">
@@ -5073,7 +5073,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -5088,12 +5088,12 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>MERLMER</t>
         </is>
       </c>
       <c r="F95">
@@ -5103,10 +5103,10 @@
         <v>1</v>
       </c>
       <c r="H95">
-        <v>35</v>
+        <v>190</v>
       </c>
       <c r="I95">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="J95" t="inlineStr">
         <is>
@@ -5115,7 +5115,7 @@
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>MEDPF-1</t>
+          <t>MEDFI-1</t>
         </is>
       </c>
       <c r="L95">
@@ -5125,7 +5125,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -5145,7 +5145,7 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>PENAZTC</t>
         </is>
       </c>
       <c r="F96">
@@ -5155,19 +5155,14 @@
         <v>1</v>
       </c>
       <c r="H96">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="I96">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="J96" t="inlineStr">
         <is>
           <t>F</t>
-        </is>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L96">
@@ -5177,7 +5172,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -5197,7 +5192,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>ILLECOI</t>
         </is>
       </c>
       <c r="F97">
@@ -5207,19 +5202,14 @@
         <v>1</v>
       </c>
       <c r="H97">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="I97">
-        <v>24</v>
+        <v>-1</v>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L97">
@@ -5229,7 +5219,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -5249,7 +5239,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>GOBINIG</t>
         </is>
       </c>
       <c r="F98">
@@ -5259,14 +5249,14 @@
         <v>1</v>
       </c>
       <c r="H98">
-        <v>26</v>
+        <v>120</v>
       </c>
       <c r="I98">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L98">
@@ -5276,7 +5266,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -5296,7 +5286,7 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>GOBINIG</t>
         </is>
       </c>
       <c r="F99">
@@ -5306,14 +5296,14 @@
         <v>1</v>
       </c>
       <c r="H99">
-        <v>27</v>
+        <v>110</v>
       </c>
       <c r="I99">
-        <v>13</v>
+        <v>-1</v>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L99">
@@ -5323,7 +5313,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -5343,7 +5333,7 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>GOBINIG</t>
         </is>
       </c>
       <c r="F100">
@@ -5353,19 +5343,14 @@
         <v>1</v>
       </c>
       <c r="H100">
-        <v>30</v>
+        <v>105</v>
       </c>
       <c r="I100">
-        <v>17</v>
+        <v>-1</v>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L100">
@@ -5375,7 +5360,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -5395,7 +5380,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F101">
@@ -5405,19 +5390,14 @@
         <v>1</v>
       </c>
       <c r="H101">
-        <v>29</v>
+        <v>120</v>
       </c>
       <c r="I101">
-        <v>15</v>
+        <v>-1</v>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L101">
@@ -5427,7 +5407,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -5447,7 +5427,7 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F102">
@@ -5457,14 +5437,14 @@
         <v>1</v>
       </c>
       <c r="H102">
-        <v>30</v>
+        <v>102</v>
       </c>
       <c r="I102">
-        <v>17</v>
+        <v>-1</v>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L102">
@@ -5474,7 +5454,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -5494,7 +5474,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F103">
@@ -5504,19 +5484,14 @@
         <v>1</v>
       </c>
       <c r="H103">
-        <v>29</v>
+        <v>100</v>
       </c>
       <c r="I103">
-        <v>15</v>
+        <v>-1</v>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L103">
@@ -5526,7 +5501,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -5546,7 +5521,7 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>CITHMAC</t>
         </is>
       </c>
       <c r="F104">
@@ -5556,14 +5531,14 @@
         <v>1</v>
       </c>
       <c r="H104">
-        <v>35</v>
+        <v>175</v>
       </c>
       <c r="I104">
-        <v>25</v>
+        <v>-1</v>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L104">
@@ -5573,7 +5548,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -5593,7 +5568,7 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F105">
@@ -5603,19 +5578,19 @@
         <v>1</v>
       </c>
       <c r="H105">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="I105">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>MEDPF-1</t>
+          <t>SOSEM-1</t>
         </is>
       </c>
       <c r="L105">
@@ -5625,7 +5600,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -5645,7 +5620,7 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>MULLBAR</t>
         </is>
       </c>
       <c r="F106">
@@ -5655,14 +5630,19 @@
         <v>1</v>
       </c>
       <c r="H106">
-        <v>26</v>
+        <v>176</v>
       </c>
       <c r="I106">
-        <v>11</v>
+        <v>68</v>
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>MEDFI-2</t>
         </is>
       </c>
       <c r="L106">
@@ -5672,7 +5652,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -5692,7 +5672,7 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>MERLMER</t>
         </is>
       </c>
       <c r="F107">
@@ -5702,10 +5682,10 @@
         <v>1</v>
       </c>
       <c r="H107">
-        <v>29</v>
+        <v>200</v>
       </c>
       <c r="I107">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="J107" t="inlineStr">
         <is>
@@ -5714,7 +5694,7 @@
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>MEDPF-1</t>
+          <t>MEDFI-1</t>
         </is>
       </c>
       <c r="L107">
@@ -5724,7 +5704,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -5744,7 +5724,7 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F108">
@@ -5754,10 +5734,10 @@
         <v>1</v>
       </c>
       <c r="H108">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I108">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="J108" t="inlineStr">
         <is>
@@ -5771,7 +5751,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -5791,7 +5771,7 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F109">
@@ -5801,10 +5781,10 @@
         <v>1</v>
       </c>
       <c r="H109">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I109">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="J109" t="inlineStr">
         <is>
@@ -5818,7 +5798,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -5838,7 +5818,7 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F110">
@@ -5848,10 +5828,10 @@
         <v>1</v>
       </c>
       <c r="H110">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="I110">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="J110" t="inlineStr">
         <is>
@@ -5860,7 +5840,7 @@
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>MEDPF-1</t>
+          <t>FROSQ-2</t>
         </is>
       </c>
       <c r="L110">
@@ -5870,7 +5850,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -5890,7 +5870,7 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F111">
@@ -5900,14 +5880,19 @@
         <v>1</v>
       </c>
       <c r="H111">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I111">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>FROSQ-1</t>
         </is>
       </c>
       <c r="L111">
@@ -5917,7 +5902,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -5937,7 +5922,7 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F112">
@@ -5947,10 +5932,10 @@
         <v>1</v>
       </c>
       <c r="H112">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I112">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J112" t="inlineStr">
         <is>
@@ -5959,7 +5944,7 @@
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>MEDPF-1</t>
+          <t>FROSQ-1</t>
         </is>
       </c>
       <c r="L112">
@@ -5969,7 +5954,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -5989,7 +5974,7 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F113">
@@ -5999,14 +5984,19 @@
         <v>1</v>
       </c>
       <c r="H113">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="I113">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>FROSQ-1</t>
         </is>
       </c>
       <c r="L113">
@@ -6016,7 +6006,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -6036,7 +6026,7 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F114">
@@ -6046,10 +6036,10 @@
         <v>1</v>
       </c>
       <c r="H114">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I114">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="J114" t="inlineStr">
         <is>
@@ -6058,7 +6048,7 @@
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>MEDPF-1</t>
+          <t>FROSQ-2</t>
         </is>
       </c>
       <c r="L114">
@@ -6068,7 +6058,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -6088,7 +6078,7 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F115">
@@ -6098,14 +6088,19 @@
         <v>1</v>
       </c>
       <c r="H115">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I115">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>FROSQ-2</t>
         </is>
       </c>
       <c r="L115">
@@ -6115,7 +6110,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -6135,7 +6130,7 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F116">
@@ -6145,14 +6140,19 @@
         <v>1</v>
       </c>
       <c r="H116">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I116">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>FROSQ-2</t>
         </is>
       </c>
       <c r="L116">
@@ -6162,7 +6162,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -6192,10 +6192,10 @@
         <v>1</v>
       </c>
       <c r="H117">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="I117">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="J117" t="inlineStr">
         <is>
@@ -6209,7 +6209,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -6239,10 +6239,10 @@
         <v>1</v>
       </c>
       <c r="H118">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="I118">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="J118" t="inlineStr">
         <is>
@@ -6256,7 +6256,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -6286,10 +6286,10 @@
         <v>1</v>
       </c>
       <c r="H119">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I119">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="J119" t="inlineStr">
         <is>
@@ -6303,7 +6303,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -6333,19 +6333,14 @@
         <v>1</v>
       </c>
       <c r="H120">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="I120">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L120">
@@ -6355,7 +6350,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -6385,10 +6380,10 @@
         <v>1</v>
       </c>
       <c r="H121">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I121">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="J121" t="inlineStr">
         <is>
@@ -6402,7 +6397,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -6417,12 +6412,12 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>PAGEERY</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F122">
@@ -6432,14 +6427,14 @@
         <v>1</v>
       </c>
       <c r="H122">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="I122">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L122">
@@ -6449,7 +6444,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -6464,12 +6459,12 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>GOBINIG</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F123">
@@ -6479,14 +6474,14 @@
         <v>1</v>
       </c>
       <c r="H123">
-        <v>120</v>
+        <v>31</v>
       </c>
       <c r="I123">
-        <v>-1</v>
+        <v>19</v>
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L123">
@@ -6496,7 +6491,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -6511,12 +6506,12 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>GOBINIG</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F124">
@@ -6526,14 +6521,14 @@
         <v>1</v>
       </c>
       <c r="H124">
-        <v>112</v>
+        <v>29</v>
       </c>
       <c r="I124">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L124">
@@ -6543,7 +6538,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -6558,12 +6553,12 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F125">
@@ -6576,7 +6571,7 @@
         <v>26</v>
       </c>
       <c r="I125">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="J125" t="inlineStr">
         <is>
@@ -6590,7 +6585,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -6605,12 +6600,12 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F126">
@@ -6620,10 +6615,10 @@
         <v>1</v>
       </c>
       <c r="H126">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="I126">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="J126" t="inlineStr">
         <is>
@@ -6637,7 +6632,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -6652,12 +6647,12 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F127">
@@ -6667,19 +6662,14 @@
         <v>1</v>
       </c>
       <c r="H127">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I127">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>FROSQ-2</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L127">
@@ -6689,7 +6679,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -6704,12 +6694,12 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F128">
@@ -6719,19 +6709,14 @@
         <v>1</v>
       </c>
       <c r="H128">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="I128">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>FROSQ-1</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L128">
@@ -6741,7 +6726,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -6756,12 +6741,12 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>RAJAAST</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F129">
@@ -6771,19 +6756,14 @@
         <v>1</v>
       </c>
       <c r="H129">
-        <v>302</v>
+        <v>30</v>
       </c>
       <c r="I129">
-        <v>167</v>
+        <v>18</v>
       </c>
       <c r="J129" t="inlineStr">
         <is>
           <t>M</t>
-        </is>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>MEDSE-1</t>
         </is>
       </c>
       <c r="L129">
@@ -6793,7 +6773,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -6808,12 +6788,12 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F130">
@@ -6823,19 +6803,14 @@
         <v>1</v>
       </c>
       <c r="H130">
-        <v>277</v>
+        <v>31</v>
       </c>
       <c r="I130">
-        <v>170</v>
+        <v>18</v>
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>HOLRA-2</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L130">
@@ -6845,7 +6820,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -6860,12 +6835,12 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F131">
@@ -6875,19 +6850,14 @@
         <v>1</v>
       </c>
       <c r="H131">
-        <v>254</v>
+        <v>32</v>
       </c>
       <c r="I131">
-        <v>135</v>
+        <v>17</v>
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>HOLRA-2</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L131">
@@ -6897,7 +6867,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -6912,12 +6882,12 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>PENAZTC</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F132">
@@ -6927,14 +6897,14 @@
         <v>1</v>
       </c>
       <c r="H132">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="I132">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L132">
@@ -6944,7 +6914,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -6959,7 +6929,7 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -6974,10 +6944,10 @@
         <v>1</v>
       </c>
       <c r="H133">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="I133">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="J133" t="inlineStr">
         <is>
@@ -6991,7 +6961,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -7006,7 +6976,7 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -7021,19 +6991,14 @@
         <v>1</v>
       </c>
       <c r="H134">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I134">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L134">
@@ -7043,7 +7008,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -7058,7 +7023,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -7073,19 +7038,14 @@
         <v>1</v>
       </c>
       <c r="H135">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="I135">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L135">
@@ -7095,7 +7055,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -7110,7 +7070,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -7125,19 +7085,14 @@
         <v>1</v>
       </c>
       <c r="H136">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="I136">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L136">
@@ -7147,7 +7102,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -7162,7 +7117,7 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -7177,10 +7132,10 @@
         <v>1</v>
       </c>
       <c r="H137">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="I137">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="J137" t="inlineStr">
         <is>
@@ -7194,7 +7149,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -7209,7 +7164,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -7224,19 +7179,14 @@
         <v>1</v>
       </c>
       <c r="H138">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I138">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L138">
@@ -7246,7 +7196,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -7261,7 +7211,7 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -7276,19 +7226,14 @@
         <v>1</v>
       </c>
       <c r="H139">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="I139">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L139">
@@ -7298,7 +7243,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -7313,7 +7258,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -7328,19 +7273,14 @@
         <v>1</v>
       </c>
       <c r="H140">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I140">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L140">
@@ -7350,7 +7290,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -7365,7 +7305,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -7380,19 +7320,14 @@
         <v>1</v>
       </c>
       <c r="H141">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I141">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L141">
@@ -7402,7 +7337,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -7417,7 +7352,7 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -7432,19 +7367,14 @@
         <v>1</v>
       </c>
       <c r="H142">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="I142">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L142">
@@ -7454,7 +7384,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -7469,7 +7399,7 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -7484,19 +7414,14 @@
         <v>1</v>
       </c>
       <c r="H143">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I143">
         <v>20</v>
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L143">
@@ -7506,7 +7431,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -7521,7 +7446,7 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -7536,10 +7461,10 @@
         <v>1</v>
       </c>
       <c r="H144">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I144">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="J144" t="inlineStr">
         <is>
@@ -7553,7 +7478,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -7568,7 +7493,7 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -7583,10 +7508,10 @@
         <v>1</v>
       </c>
       <c r="H145">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I145">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J145" t="inlineStr">
         <is>
@@ -7595,7 +7520,7 @@
       </c>
       <c r="K145" t="inlineStr">
         <is>
-          <t>MEDPF-1</t>
+          <t>MEDPF-2</t>
         </is>
       </c>
       <c r="L145">
@@ -7605,7 +7530,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -7620,7 +7545,7 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -7635,14 +7560,19 @@
         <v>1</v>
       </c>
       <c r="H146">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="I146">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>MEDPF-2</t>
         </is>
       </c>
       <c r="L146">
@@ -7652,7 +7582,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -7667,7 +7597,7 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -7682,7 +7612,7 @@
         <v>1</v>
       </c>
       <c r="H147">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I147">
         <v>20</v>
@@ -7704,7 +7634,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -7719,7 +7649,7 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -7734,7 +7664,7 @@
         <v>1</v>
       </c>
       <c r="H148">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I148">
         <v>18</v>
@@ -7746,7 +7676,7 @@
       </c>
       <c r="K148" t="inlineStr">
         <is>
-          <t>MEDPF-1</t>
+          <t>MEDPF-2</t>
         </is>
       </c>
       <c r="L148">
@@ -7756,7 +7686,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -7771,7 +7701,7 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -7786,10 +7716,10 @@
         <v>1</v>
       </c>
       <c r="H149">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I149">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="J149" t="inlineStr">
         <is>
@@ -7798,7 +7728,7 @@
       </c>
       <c r="K149" t="inlineStr">
         <is>
-          <t>MEDPF-1</t>
+          <t>MEDPF-2</t>
         </is>
       </c>
       <c r="L149">
@@ -7808,7 +7738,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -7823,7 +7753,7 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -7838,10 +7768,10 @@
         <v>1</v>
       </c>
       <c r="H150">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="I150">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="J150" t="inlineStr">
         <is>
@@ -7850,7 +7780,7 @@
       </c>
       <c r="K150" t="inlineStr">
         <is>
-          <t>MEDPF-1</t>
+          <t>MEDPF-2</t>
         </is>
       </c>
       <c r="L150">
@@ -7860,7 +7790,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -7875,7 +7805,7 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -7890,14 +7820,19 @@
         <v>1</v>
       </c>
       <c r="H151">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="I151">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>MEDPF-2</t>
         </is>
       </c>
       <c r="L151">
@@ -7907,7 +7842,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -7922,7 +7857,7 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -7937,14 +7872,19 @@
         <v>1</v>
       </c>
       <c r="H152">
+        <v>37</v>
+      </c>
+      <c r="I152">
         <v>29</v>
       </c>
-      <c r="I152">
-        <v>14</v>
-      </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>MEDPF-2</t>
         </is>
       </c>
       <c r="L152">
@@ -7954,7 +7894,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -7969,7 +7909,7 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -7984,10 +7924,10 @@
         <v>1</v>
       </c>
       <c r="H153">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="I153">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="J153" t="inlineStr">
         <is>
@@ -7996,7 +7936,7 @@
       </c>
       <c r="K153" t="inlineStr">
         <is>
-          <t>MEDPF-1</t>
+          <t>MEDPF-2</t>
         </is>
       </c>
       <c r="L153">
@@ -8006,7 +7946,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -8021,7 +7961,7 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -8036,10 +7976,10 @@
         <v>1</v>
       </c>
       <c r="H154">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="I154">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="J154" t="inlineStr">
         <is>
@@ -8048,7 +7988,7 @@
       </c>
       <c r="K154" t="inlineStr">
         <is>
-          <t>MEDPF-1</t>
+          <t>MEDPF-2</t>
         </is>
       </c>
       <c r="L154">
@@ -8058,7 +7998,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -8073,7 +8013,7 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -8088,10 +8028,10 @@
         <v>1</v>
       </c>
       <c r="H155">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="I155">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="J155" t="inlineStr">
         <is>
@@ -8100,7 +8040,7 @@
       </c>
       <c r="K155" t="inlineStr">
         <is>
-          <t>MEDPF-1</t>
+          <t>MEDPF-2</t>
         </is>
       </c>
       <c r="L155">
@@ -8110,7 +8050,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -8125,7 +8065,7 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -8140,14 +8080,19 @@
         <v>1</v>
       </c>
       <c r="H156">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="I156">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>MEDPF-2</t>
         </is>
       </c>
       <c r="L156">
@@ -8157,7 +8102,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -8172,7 +8117,7 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
@@ -8187,14 +8132,19 @@
         <v>1</v>
       </c>
       <c r="H157">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="I157">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>MEDPF-2</t>
         </is>
       </c>
       <c r="L157">
@@ -8204,7 +8154,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -8219,7 +8169,7 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
@@ -8234,10 +8184,10 @@
         <v>1</v>
       </c>
       <c r="H158">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="I158">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="J158" t="inlineStr">
         <is>
@@ -8246,7 +8196,7 @@
       </c>
       <c r="K158" t="inlineStr">
         <is>
-          <t>MEDPF-1</t>
+          <t>MEDPF-2</t>
         </is>
       </c>
       <c r="L158">
@@ -8256,7 +8206,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -8271,7 +8221,7 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -8286,10 +8236,10 @@
         <v>1</v>
       </c>
       <c r="H159">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="I159">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="J159" t="inlineStr">
         <is>
@@ -8308,7 +8258,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -8323,7 +8273,7 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
@@ -8338,10 +8288,10 @@
         <v>1</v>
       </c>
       <c r="H160">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="I160">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="J160" t="inlineStr">
         <is>
@@ -8360,7 +8310,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -8375,7 +8325,7 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -8390,14 +8340,19 @@
         <v>1</v>
       </c>
       <c r="H161">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I161">
         <v>22</v>
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L161">
@@ -8407,7 +8362,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -8422,7 +8377,7 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
@@ -8437,14 +8392,19 @@
         <v>1</v>
       </c>
       <c r="H162">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="I162">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L162">
@@ -8454,7 +8414,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -8469,7 +8429,7 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
@@ -8484,14 +8444,19 @@
         <v>1</v>
       </c>
       <c r="H163">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I163">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L163">
@@ -8501,7 +8466,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -8516,7 +8481,7 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -8531,10 +8496,10 @@
         <v>1</v>
       </c>
       <c r="H164">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="I164">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="J164" t="inlineStr">
         <is>
@@ -8553,7 +8518,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -8568,7 +8533,7 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
@@ -8583,10 +8548,10 @@
         <v>1</v>
       </c>
       <c r="H165">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I165">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J165" t="inlineStr">
         <is>
@@ -8605,7 +8570,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -8620,7 +8585,7 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
@@ -8635,14 +8600,19 @@
         <v>1</v>
       </c>
       <c r="H166">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="I166">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L166">
@@ -8652,7 +8622,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -8667,7 +8637,7 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
@@ -8682,14 +8652,19 @@
         <v>1</v>
       </c>
       <c r="H167">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="I167">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L167">
@@ -8699,7 +8674,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -8714,7 +8689,7 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
@@ -8729,14 +8704,19 @@
         <v>1</v>
       </c>
       <c r="H168">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I168">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L168">
@@ -8746,7 +8726,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -8761,7 +8741,7 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
@@ -8776,19 +8756,14 @@
         <v>1</v>
       </c>
       <c r="H169">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I169">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L169">
@@ -8798,7 +8773,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -8813,7 +8788,7 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
@@ -8828,10 +8803,10 @@
         <v>1</v>
       </c>
       <c r="H170">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I170">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J170" t="inlineStr">
         <is>
@@ -8850,7 +8825,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -8865,7 +8840,7 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
@@ -8880,10 +8855,10 @@
         <v>1</v>
       </c>
       <c r="H171">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="I171">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="J171" t="inlineStr">
         <is>
@@ -8902,7 +8877,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -8917,7 +8892,7 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
@@ -8932,10 +8907,10 @@
         <v>1</v>
       </c>
       <c r="H172">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="I172">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="J172" t="inlineStr">
         <is>
@@ -8954,7 +8929,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -8969,7 +8944,7 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
@@ -8984,14 +8959,19 @@
         <v>1</v>
       </c>
       <c r="H173">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="I173">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L173">
@@ -9001,7 +8981,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -9016,7 +8996,7 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
@@ -9031,10 +9011,10 @@
         <v>1</v>
       </c>
       <c r="H174">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="I174">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="J174" t="inlineStr">
         <is>
@@ -9053,7 +9033,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -9068,7 +9048,7 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
@@ -9083,14 +9063,19 @@
         <v>1</v>
       </c>
       <c r="H175">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="I175">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L175">
@@ -9100,7 +9085,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -9120,7 +9105,7 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F176">
@@ -9130,24 +9115,34 @@
         <v>1</v>
       </c>
       <c r="H176">
-        <v>26</v>
+        <v>264</v>
       </c>
       <c r="I176">
-        <v>10</v>
+        <v>170</v>
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>HOLRA-5</t>
         </is>
       </c>
       <c r="L176">
         <v>0</v>
+      </c>
+      <c r="N176" t="inlineStr">
+        <is>
+          <t>SS8014</t>
+        </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -9167,7 +9162,7 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F177">
@@ -9177,10 +9172,10 @@
         <v>1</v>
       </c>
       <c r="H177">
-        <v>27</v>
+        <v>251</v>
       </c>
       <c r="I177">
-        <v>12</v>
+        <v>144</v>
       </c>
       <c r="J177" t="inlineStr">
         <is>
@@ -9189,17 +9184,22 @@
       </c>
       <c r="K177" t="inlineStr">
         <is>
-          <t>MEDPF-1</t>
+          <t>HOLRA-5</t>
         </is>
       </c>
       <c r="L177">
         <v>0</v>
+      </c>
+      <c r="N177" t="inlineStr">
+        <is>
+          <t>SS8015</t>
+        </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -9214,12 +9214,12 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F178">
@@ -9229,10 +9229,10 @@
         <v>1</v>
       </c>
       <c r="H178">
-        <v>24</v>
+        <v>305</v>
       </c>
       <c r="I178">
-        <v>10</v>
+        <v>295</v>
       </c>
       <c r="J178" t="inlineStr">
         <is>
@@ -9241,17 +9241,22 @@
       </c>
       <c r="K178" t="inlineStr">
         <is>
-          <t>MEDPF-1</t>
+          <t>HOLRA-3</t>
         </is>
       </c>
       <c r="L178">
         <v>0</v>
+      </c>
+      <c r="N178" t="inlineStr">
+        <is>
+          <t>SS8016</t>
+        </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -9266,12 +9271,12 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F179">
@@ -9281,10 +9286,10 @@
         <v>1</v>
       </c>
       <c r="H179">
-        <v>35</v>
+        <v>245</v>
       </c>
       <c r="I179">
-        <v>18</v>
+        <v>125</v>
       </c>
       <c r="J179" t="inlineStr">
         <is>
@@ -9293,17 +9298,22 @@
       </c>
       <c r="K179" t="inlineStr">
         <is>
-          <t>MEDPF-1</t>
+          <t>HOLRA-2</t>
         </is>
       </c>
       <c r="L179">
         <v>0</v>
+      </c>
+      <c r="N179" t="inlineStr">
+        <is>
+          <t>SS8017</t>
+        </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -9318,12 +9328,12 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F180">
@@ -9333,10 +9343,10 @@
         <v>1</v>
       </c>
       <c r="H180">
-        <v>33</v>
+        <v>313</v>
       </c>
       <c r="I180">
-        <v>24</v>
+        <v>331</v>
       </c>
       <c r="J180" t="inlineStr">
         <is>
@@ -9345,17 +9355,22 @@
       </c>
       <c r="K180" t="inlineStr">
         <is>
-          <t>MEDPF-1</t>
+          <t>HOLRA-3</t>
         </is>
       </c>
       <c r="L180">
         <v>0</v>
+      </c>
+      <c r="N180" t="inlineStr">
+        <is>
+          <t>SS8018</t>
+        </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -9370,12 +9385,12 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>GOBISUE</t>
         </is>
       </c>
       <c r="F181">
@@ -9385,14 +9400,14 @@
         <v>1</v>
       </c>
       <c r="H181">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I181">
-        <v>13</v>
+        <v>-1</v>
       </c>
       <c r="J181" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L181">
@@ -9402,7 +9417,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -9417,12 +9432,12 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="F182">
@@ -9432,10 +9447,10 @@
         <v>1</v>
       </c>
       <c r="H182">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="I182">
-        <v>24</v>
+        <v>-1</v>
       </c>
       <c r="J182" t="inlineStr">
         <is>
@@ -9454,7 +9469,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -9469,12 +9484,12 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="F183">
@@ -9484,10 +9499,10 @@
         <v>1</v>
       </c>
       <c r="H183">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I183">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="J183" t="inlineStr">
         <is>
@@ -9501,7 +9516,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -9516,12 +9531,12 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="F184">
@@ -9531,14 +9546,19 @@
         <v>1</v>
       </c>
       <c r="H184">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I184">
-        <v>17</v>
+        <v>-1</v>
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>MEDPF-2</t>
         </is>
       </c>
       <c r="L184">
@@ -9548,7 +9568,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -9563,12 +9583,12 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="F185">
@@ -9578,14 +9598,19 @@
         <v>1</v>
       </c>
       <c r="H185">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="I185">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L185">
@@ -9595,7 +9620,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -9610,12 +9635,12 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="F186">
@@ -9625,14 +9650,19 @@
         <v>1</v>
       </c>
       <c r="H186">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="I186">
-        <v>16</v>
+        <v>-1</v>
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>MEDPF-2</t>
         </is>
       </c>
       <c r="L186">
@@ -9642,7 +9672,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -9657,12 +9687,12 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="F187">
@@ -9672,14 +9702,19 @@
         <v>1</v>
       </c>
       <c r="H187">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I187">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L187">
@@ -9689,7 +9724,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -9704,12 +9739,12 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="F188">
@@ -9722,7 +9757,7 @@
         <v>29</v>
       </c>
       <c r="I188">
-        <v>16</v>
+        <v>-1</v>
       </c>
       <c r="J188" t="inlineStr">
         <is>
@@ -9741,7 +9776,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -9756,12 +9791,12 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="F189">
@@ -9771,19 +9806,14 @@
         <v>1</v>
       </c>
       <c r="H189">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I189">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L189">
@@ -9793,7 +9823,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -9808,12 +9838,12 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="F190">
@@ -9823,14 +9853,19 @@
         <v>1</v>
       </c>
       <c r="H190">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I190">
-        <v>13</v>
+        <v>-1</v>
       </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L190">
@@ -9840,7 +9875,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -9855,12 +9890,12 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="F191">
@@ -9870,10 +9905,10 @@
         <v>1</v>
       </c>
       <c r="H191">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="I191">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="J191" t="inlineStr">
         <is>
@@ -9882,7 +9917,7 @@
       </c>
       <c r="K191" t="inlineStr">
         <is>
-          <t>MEDPF-1</t>
+          <t>MEDPF-2</t>
         </is>
       </c>
       <c r="L191">
@@ -9892,7 +9927,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -9907,12 +9942,12 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="F192">
@@ -9922,19 +9957,14 @@
         <v>1</v>
       </c>
       <c r="H192">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I192">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L192">
@@ -9944,7 +9974,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -9959,12 +9989,12 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="F193">
@@ -9974,19 +10004,14 @@
         <v>1</v>
       </c>
       <c r="H193">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="I193">
-        <v>33</v>
+        <v>-1</v>
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L193">
@@ -9996,7 +10021,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -10011,12 +10036,12 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="F194">
@@ -10026,10 +10051,10 @@
         <v>1</v>
       </c>
       <c r="H194">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I194">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="J194" t="inlineStr">
         <is>
@@ -10038,7 +10063,7 @@
       </c>
       <c r="K194" t="inlineStr">
         <is>
-          <t>MEDPF-1</t>
+          <t>MEDPF-2</t>
         </is>
       </c>
       <c r="L194">
@@ -10048,7 +10073,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -10063,12 +10088,12 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="F195">
@@ -10078,19 +10103,14 @@
         <v>1</v>
       </c>
       <c r="H195">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="I195">
-        <v>24</v>
+        <v>-1</v>
       </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L195">
@@ -10100,7 +10120,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -10115,12 +10135,12 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="F196">
@@ -10133,11 +10153,16 @@
         <v>28</v>
       </c>
       <c r="I196">
-        <v>12</v>
+        <v>-1</v>
       </c>
       <c r="J196" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L196">
@@ -10147,7 +10172,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -10162,12 +10187,12 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="F197">
@@ -10177,10 +10202,10 @@
         <v>1</v>
       </c>
       <c r="H197">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="I197">
-        <v>14</v>
+        <v>-1</v>
       </c>
       <c r="J197" t="inlineStr">
         <is>
@@ -10199,7 +10224,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -10214,12 +10239,12 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="F198">
@@ -10229,14 +10254,19 @@
         <v>1</v>
       </c>
       <c r="H198">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="I198">
-        <v>14</v>
+        <v>-1</v>
       </c>
       <c r="J198" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>MEDPF-2</t>
         </is>
       </c>
       <c r="L198">
@@ -10246,7 +10276,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -10261,12 +10291,12 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="F199">
@@ -10279,7 +10309,7 @@
         <v>28</v>
       </c>
       <c r="I199">
-        <v>14</v>
+        <v>-1</v>
       </c>
       <c r="J199" t="inlineStr">
         <is>
@@ -10298,7 +10328,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -10313,12 +10343,12 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="F200">
@@ -10328,10 +10358,10 @@
         <v>1</v>
       </c>
       <c r="H200">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="I200">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="J200" t="inlineStr">
         <is>
@@ -10350,7 +10380,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -10365,12 +10395,12 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="F201">
@@ -10383,7 +10413,7 @@
         <v>28</v>
       </c>
       <c r="I201">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="J201" t="inlineStr">
         <is>
@@ -10402,7 +10432,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
@@ -10417,12 +10447,12 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="F202">
@@ -10432,10 +10462,10 @@
         <v>1</v>
       </c>
       <c r="H202">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I202">
-        <v>13</v>
+        <v>-1</v>
       </c>
       <c r="J202" t="inlineStr">
         <is>
@@ -10454,7 +10484,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
@@ -10469,12 +10499,12 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="F203">
@@ -10484,14 +10514,19 @@
         <v>1</v>
       </c>
       <c r="H203">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I203">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="J203" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L203">
@@ -10501,7 +10536,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -10516,12 +10551,12 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="F204">
@@ -10531,10 +10566,10 @@
         <v>1</v>
       </c>
       <c r="H204">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="I204">
-        <v>14</v>
+        <v>-1</v>
       </c>
       <c r="J204" t="inlineStr">
         <is>
@@ -10553,7 +10588,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
@@ -10568,12 +10603,12 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="F205">
@@ -10583,14 +10618,19 @@
         <v>1</v>
       </c>
       <c r="H205">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I205">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="J205" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L205">
@@ -10600,7 +10640,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
@@ -10615,12 +10655,12 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="F206">
@@ -10630,10 +10670,10 @@
         <v>1</v>
       </c>
       <c r="H206">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I206">
-        <v>13</v>
+        <v>-1</v>
       </c>
       <c r="J206" t="inlineStr">
         <is>
@@ -10647,7 +10687,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
@@ -10662,12 +10702,12 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="F207">
@@ -10677,10 +10717,10 @@
         <v>1</v>
       </c>
       <c r="H207">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I207">
-        <v>14</v>
+        <v>-1</v>
       </c>
       <c r="J207" t="inlineStr">
         <is>
@@ -10699,7 +10739,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
@@ -10714,12 +10754,12 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="F208">
@@ -10732,11 +10772,16 @@
         <v>25</v>
       </c>
       <c r="I208">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>MEDPF-2</t>
         </is>
       </c>
       <c r="L208">
@@ -10746,7 +10791,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
@@ -10761,12 +10806,12 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="F209">
@@ -10776,14 +10821,19 @@
         <v>1</v>
       </c>
       <c r="H209">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I209">
-        <v>15</v>
+        <v>-1</v>
       </c>
       <c r="J209" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L209">
@@ -10793,7 +10843,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
@@ -10808,12 +10858,12 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="F210">
@@ -10823,10 +10873,10 @@
         <v>1</v>
       </c>
       <c r="H210">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I210">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="J210" t="inlineStr">
         <is>
@@ -10840,7 +10890,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
@@ -10855,12 +10905,12 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="F211">
@@ -10870,14 +10920,19 @@
         <v>1</v>
       </c>
       <c r="H211">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I211">
-        <v>13</v>
+        <v>-1</v>
       </c>
       <c r="J211" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>MEDPF-2</t>
         </is>
       </c>
       <c r="L211">
@@ -10887,7 +10942,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
@@ -10902,12 +10957,12 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="F212">
@@ -10917,19 +10972,14 @@
         <v>1</v>
       </c>
       <c r="H212">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="I212">
-        <v>23</v>
+        <v>-1</v>
       </c>
       <c r="J212" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L212">
@@ -10939,7 +10989,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
@@ -10954,12 +11004,12 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="F213">
@@ -10969,10 +11019,10 @@
         <v>1</v>
       </c>
       <c r="H213">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I213">
-        <v>16</v>
+        <v>-1</v>
       </c>
       <c r="J213" t="inlineStr">
         <is>
@@ -10991,7 +11041,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
@@ -11006,12 +11056,12 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="F214">
@@ -11021,14 +11071,19 @@
         <v>1</v>
       </c>
       <c r="H214">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I214">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>MEDPF-2</t>
         </is>
       </c>
       <c r="L214">
@@ -11038,7 +11093,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
@@ -11053,12 +11108,12 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="F215">
@@ -11068,14 +11123,19 @@
         <v>1</v>
       </c>
       <c r="H215">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I215">
-        <v>16</v>
+        <v>-1</v>
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L215">
@@ -11085,7 +11145,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
@@ -11100,12 +11160,12 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="F216">
@@ -11115,14 +11175,19 @@
         <v>1</v>
       </c>
       <c r="H216">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I216">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L216">
@@ -11132,7 +11197,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
@@ -11147,12 +11212,12 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="F217">
@@ -11162,14 +11227,19 @@
         <v>1</v>
       </c>
       <c r="H217">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I217">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="J217" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L217">
@@ -11179,7 +11249,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
@@ -11194,12 +11264,12 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="F218">
@@ -11209,10 +11279,10 @@
         <v>1</v>
       </c>
       <c r="H218">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I218">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="J218" t="inlineStr">
         <is>
@@ -11226,7 +11296,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
@@ -11241,12 +11311,12 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="F219">
@@ -11256,14 +11326,19 @@
         <v>1</v>
       </c>
       <c r="H219">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I219">
-        <v>14</v>
+        <v>-1</v>
       </c>
       <c r="J219" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L219">
@@ -11273,7 +11348,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
@@ -11288,12 +11363,12 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="F220">
@@ -11303,10 +11378,10 @@
         <v>1</v>
       </c>
       <c r="H220">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="I220">
-        <v>29</v>
+        <v>-1</v>
       </c>
       <c r="J220" t="inlineStr">
         <is>
@@ -11325,7 +11400,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
@@ -11340,12 +11415,12 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="F221">
@@ -11355,14 +11430,19 @@
         <v>1</v>
       </c>
       <c r="H221">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I221">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L221">
@@ -11372,7 +11452,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
@@ -11387,12 +11467,12 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="F222">
@@ -11402,19 +11482,14 @@
         <v>1</v>
       </c>
       <c r="H222">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I222">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L222">
@@ -11424,7 +11499,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
@@ -11439,12 +11514,12 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="F223">
@@ -11454,14 +11529,19 @@
         <v>1</v>
       </c>
       <c r="H223">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I223">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="J223" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L223">
@@ -11471,7 +11551,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
@@ -11486,12 +11566,12 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="F224">
@@ -11501,14 +11581,19 @@
         <v>1</v>
       </c>
       <c r="H224">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I224">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="J224" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L224">
@@ -11518,7 +11603,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
@@ -11533,12 +11618,12 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="F225">
@@ -11548,10 +11633,10 @@
         <v>1</v>
       </c>
       <c r="H225">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I225">
-        <v>15</v>
+        <v>-1</v>
       </c>
       <c r="J225" t="inlineStr">
         <is>
@@ -11570,7 +11655,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
@@ -11585,12 +11670,12 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="F226">
@@ -11600,10 +11685,10 @@
         <v>1</v>
       </c>
       <c r="H226">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I226">
-        <v>17</v>
+        <v>-1</v>
       </c>
       <c r="J226" t="inlineStr">
         <is>
@@ -11617,7 +11702,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
@@ -11632,12 +11717,12 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="F227">
@@ -11647,14 +11732,19 @@
         <v>1</v>
       </c>
       <c r="H227">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I227">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="J227" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L227">
@@ -11664,7 +11754,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
@@ -11679,12 +11769,12 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="F228">
@@ -11694,10 +11784,10 @@
         <v>1</v>
       </c>
       <c r="H228">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I228">
-        <v>12</v>
+        <v>-1</v>
       </c>
       <c r="J228" t="inlineStr">
         <is>
@@ -11706,7 +11796,7 @@
       </c>
       <c r="K228" t="inlineStr">
         <is>
-          <t>MEDPF-1</t>
+          <t>MEDPF-2</t>
         </is>
       </c>
       <c r="L228">
@@ -11716,7 +11806,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
@@ -11731,12 +11821,12 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="F229">
@@ -11746,14 +11836,19 @@
         <v>1</v>
       </c>
       <c r="H229">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I229">
-        <v>16</v>
+        <v>-1</v>
       </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L229">
@@ -11763,7 +11858,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
@@ -11778,12 +11873,12 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="F230">
@@ -11793,14 +11888,19 @@
         <v>1</v>
       </c>
       <c r="H230">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I230">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="J230" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L230">
@@ -11810,7 +11910,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
@@ -11825,12 +11925,12 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="F231">
@@ -11840,14 +11940,19 @@
         <v>1</v>
       </c>
       <c r="H231">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I231">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="J231" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L231">
@@ -11857,7 +11962,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
@@ -11872,12 +11977,12 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="F232">
@@ -11887,10 +11992,10 @@
         <v>1</v>
       </c>
       <c r="H232">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="I232">
-        <v>13</v>
+        <v>-1</v>
       </c>
       <c r="J232" t="inlineStr">
         <is>
@@ -11899,7 +12004,7 @@
       </c>
       <c r="K232" t="inlineStr">
         <is>
-          <t>MEDPF-1</t>
+          <t>MEDPF-3</t>
         </is>
       </c>
       <c r="L232">
@@ -11909,7 +12014,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
@@ -11924,12 +12029,12 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="F233">
@@ -11939,10 +12044,10 @@
         <v>1</v>
       </c>
       <c r="H233">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="I233">
-        <v>24</v>
+        <v>-1</v>
       </c>
       <c r="J233" t="inlineStr">
         <is>
@@ -11961,7 +12066,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
@@ -11976,12 +12081,12 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="F234">
@@ -11991,14 +12096,19 @@
         <v>1</v>
       </c>
       <c r="H234">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I234">
-        <v>12</v>
+        <v>-1</v>
       </c>
       <c r="J234" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L234">
@@ -12008,7 +12118,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
@@ -12023,12 +12133,12 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="F235">
@@ -12038,10 +12148,10 @@
         <v>1</v>
       </c>
       <c r="H235">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I235">
-        <v>16</v>
+        <v>-1</v>
       </c>
       <c r="J235" t="inlineStr">
         <is>
@@ -12060,7 +12170,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
@@ -12075,12 +12185,12 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="F236">
@@ -12090,19 +12200,14 @@
         <v>1</v>
       </c>
       <c r="H236">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I236">
-        <v>12</v>
+        <v>-1</v>
       </c>
       <c r="J236" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L236">
@@ -12112,7 +12217,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
@@ -12127,12 +12232,12 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="F237">
@@ -12142,14 +12247,19 @@
         <v>1</v>
       </c>
       <c r="H237">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I237">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="J237" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L237">
@@ -12159,7 +12269,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
@@ -12174,12 +12284,12 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="F238">
@@ -12189,10 +12299,10 @@
         <v>1</v>
       </c>
       <c r="H238">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I238">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="J238" t="inlineStr">
         <is>
@@ -12206,7 +12316,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
@@ -12221,12 +12331,12 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="F239">
@@ -12236,14 +12346,19 @@
         <v>1</v>
       </c>
       <c r="H239">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I239">
-        <v>12</v>
+        <v>-1</v>
       </c>
       <c r="J239" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L239">
@@ -12253,7 +12368,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
@@ -12268,12 +12383,12 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="F240">
@@ -12283,14 +12398,19 @@
         <v>1</v>
       </c>
       <c r="H240">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I240">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="J240" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>MEDPF-2</t>
         </is>
       </c>
       <c r="L240">
@@ -12300,7 +12420,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
@@ -12315,12 +12435,12 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="F241">
@@ -12330,10 +12450,10 @@
         <v>1</v>
       </c>
       <c r="H241">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I241">
-        <v>16</v>
+        <v>-1</v>
       </c>
       <c r="J241" t="inlineStr">
         <is>
@@ -12342,266 +12462,11 @@
       </c>
       <c r="K241" t="inlineStr">
         <is>
-          <t>MEDPF-1</t>
+          <t>MEDPF-2</t>
         </is>
       </c>
       <c r="L241">
         <v>0</v>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B242" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C242" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
-      <c r="D242" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E242" t="inlineStr">
-        <is>
-          <t>MELIKER</t>
-        </is>
-      </c>
-      <c r="F242">
-        <v>1</v>
-      </c>
-      <c r="G242">
-        <v>1</v>
-      </c>
-      <c r="H242">
-        <v>25</v>
-      </c>
-      <c r="I242">
-        <v>11</v>
-      </c>
-      <c r="J242" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="L242">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B243" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C243" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
-      <c r="D243" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E243" t="inlineStr">
-        <is>
-          <t>MELIKER</t>
-        </is>
-      </c>
-      <c r="F243">
-        <v>1</v>
-      </c>
-      <c r="G243">
-        <v>1</v>
-      </c>
-      <c r="H243">
-        <v>21</v>
-      </c>
-      <c r="I243">
-        <v>9</v>
-      </c>
-      <c r="J243" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="L243">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B244" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C244" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
-      <c r="D244" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E244" t="inlineStr">
-        <is>
-          <t>MELIKER</t>
-        </is>
-      </c>
-      <c r="F244">
-        <v>1</v>
-      </c>
-      <c r="G244">
-        <v>1</v>
-      </c>
-      <c r="H244">
-        <v>26</v>
-      </c>
-      <c r="I244">
-        <v>10</v>
-      </c>
-      <c r="J244" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
-        </is>
-      </c>
-      <c r="L244">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B245" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C245" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
-      <c r="D245" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E245" t="inlineStr">
-        <is>
-          <t>MULLBAR</t>
-        </is>
-      </c>
-      <c r="F245">
-        <v>1</v>
-      </c>
-      <c r="G245">
-        <v>1</v>
-      </c>
-      <c r="H245">
-        <v>136</v>
-      </c>
-      <c r="I245">
-        <v>31</v>
-      </c>
-      <c r="J245" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>MEDFI-1</t>
-        </is>
-      </c>
-      <c r="L245">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B246" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C246" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
-      <c r="D246" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E246" t="inlineStr">
-        <is>
-          <t>SCOHRHO</t>
-        </is>
-      </c>
-      <c r="F246">
-        <v>1</v>
-      </c>
-      <c r="G246">
-        <v>1</v>
-      </c>
-      <c r="H246">
-        <v>250</v>
-      </c>
-      <c r="I246">
-        <v>214</v>
-      </c>
-      <c r="J246" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>HOLRA-2</t>
-        </is>
-      </c>
-      <c r="L246">
-        <v>0</v>
-      </c>
-      <c r="N246" t="inlineStr">
-        <is>
-          <t>SR477</t>
-        </is>
       </c>
     </row>
   </sheetData>

--- a/OnBoard/output/trust/bio/Bio_Trust_28.xlsx
+++ b/OnBoard/output/trust/bio/Bio_Trust_28.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q241"/>
+  <dimension ref="A1:Q243"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9390,7 +9390,7 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>GOBISUE</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F181">
@@ -9400,10 +9400,10 @@
         <v>1</v>
       </c>
       <c r="H181">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="I181">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="J181" t="inlineStr">
         <is>
@@ -9412,6 +9412,11 @@
       </c>
       <c r="L181">
         <v>0</v>
+      </c>
+      <c r="P181" t="inlineStr">
+        <is>
+          <t>NA l inferred</t>
+        </is>
       </c>
     </row>
     <row r="182">
@@ -9437,7 +9442,7 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>LIOCDEP</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F182">
@@ -9447,23 +9452,23 @@
         <v>1</v>
       </c>
       <c r="H182">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="I182">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="J182" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L182">
         <v>0</v>
+      </c>
+      <c r="P182" t="inlineStr">
+        <is>
+          <t>NA l inferred</t>
+        </is>
       </c>
     </row>
     <row r="183">
@@ -9489,7 +9494,7 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>LIOCDEP</t>
+          <t>GOBISUE</t>
         </is>
       </c>
       <c r="F183">
@@ -9499,14 +9504,14 @@
         <v>1</v>
       </c>
       <c r="H183">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="I183">
         <v>-1</v>
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L183">
@@ -9558,7 +9563,7 @@
       </c>
       <c r="K184" t="inlineStr">
         <is>
-          <t>MEDPF-2</t>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L184">
@@ -9598,19 +9603,14 @@
         <v>1</v>
       </c>
       <c r="H185">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="I185">
         <v>-1</v>
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L185">
@@ -9650,7 +9650,7 @@
         <v>1</v>
       </c>
       <c r="H186">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I186">
         <v>-1</v>
@@ -9702,7 +9702,7 @@
         <v>1</v>
       </c>
       <c r="H187">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="I187">
         <v>-1</v>
@@ -9754,7 +9754,7 @@
         <v>1</v>
       </c>
       <c r="H188">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="I188">
         <v>-1</v>
@@ -9766,7 +9766,7 @@
       </c>
       <c r="K188" t="inlineStr">
         <is>
-          <t>MEDPF-1</t>
+          <t>MEDPF-2</t>
         </is>
       </c>
       <c r="L188">
@@ -9806,14 +9806,19 @@
         <v>1</v>
       </c>
       <c r="H189">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I189">
         <v>-1</v>
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L189">
@@ -9853,7 +9858,7 @@
         <v>1</v>
       </c>
       <c r="H190">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I190">
         <v>-1</v>
@@ -9905,19 +9910,14 @@
         <v>1</v>
       </c>
       <c r="H191">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I191">
         <v>-1</v>
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>MEDPF-2</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L191">
@@ -9957,14 +9957,19 @@
         <v>1</v>
       </c>
       <c r="H192">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I192">
         <v>-1</v>
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L192">
@@ -10004,14 +10009,19 @@
         <v>1</v>
       </c>
       <c r="H193">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="I193">
         <v>-1</v>
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>MEDPF-2</t>
         </is>
       </c>
       <c r="L193">
@@ -10051,19 +10061,14 @@
         <v>1</v>
       </c>
       <c r="H194">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I194">
         <v>-1</v>
       </c>
       <c r="J194" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>MEDPF-2</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L194">
@@ -10150,7 +10155,7 @@
         <v>1</v>
       </c>
       <c r="H196">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I196">
         <v>-1</v>
@@ -10162,7 +10167,7 @@
       </c>
       <c r="K196" t="inlineStr">
         <is>
-          <t>MEDPF-1</t>
+          <t>MEDPF-2</t>
         </is>
       </c>
       <c r="L196">
@@ -10202,19 +10207,14 @@
         <v>1</v>
       </c>
       <c r="H197">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="I197">
         <v>-1</v>
       </c>
       <c r="J197" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L197">
@@ -10254,7 +10254,7 @@
         <v>1</v>
       </c>
       <c r="H198">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I198">
         <v>-1</v>
@@ -10266,7 +10266,7 @@
       </c>
       <c r="K198" t="inlineStr">
         <is>
-          <t>MEDPF-2</t>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L198">
@@ -10306,7 +10306,7 @@
         <v>1</v>
       </c>
       <c r="H199">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="I199">
         <v>-1</v>
@@ -10358,7 +10358,7 @@
         <v>1</v>
       </c>
       <c r="H200">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I200">
         <v>-1</v>
@@ -10370,7 +10370,7 @@
       </c>
       <c r="K200" t="inlineStr">
         <is>
-          <t>MEDPF-1</t>
+          <t>MEDPF-2</t>
         </is>
       </c>
       <c r="L200">
@@ -10462,7 +10462,7 @@
         <v>1</v>
       </c>
       <c r="H202">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I202">
         <v>-1</v>
@@ -10514,7 +10514,7 @@
         <v>1</v>
       </c>
       <c r="H203">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="I203">
         <v>-1</v>
@@ -10566,7 +10566,7 @@
         <v>1</v>
       </c>
       <c r="H204">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I204">
         <v>-1</v>
@@ -10618,7 +10618,7 @@
         <v>1</v>
       </c>
       <c r="H205">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I205">
         <v>-1</v>
@@ -10670,14 +10670,19 @@
         <v>1</v>
       </c>
       <c r="H206">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="I206">
         <v>-1</v>
       </c>
       <c r="J206" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L206">
@@ -10717,7 +10722,7 @@
         <v>1</v>
       </c>
       <c r="H207">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I207">
         <v>-1</v>
@@ -10769,19 +10774,14 @@
         <v>1</v>
       </c>
       <c r="H208">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I208">
         <v>-1</v>
       </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>MEDPF-2</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L208">
@@ -10821,7 +10821,7 @@
         <v>1</v>
       </c>
       <c r="H209">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I209">
         <v>-1</v>
@@ -10873,14 +10873,19 @@
         <v>1</v>
       </c>
       <c r="H210">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I210">
         <v>-1</v>
       </c>
       <c r="J210" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>MEDPF-2</t>
         </is>
       </c>
       <c r="L210">
@@ -10932,7 +10937,7 @@
       </c>
       <c r="K211" t="inlineStr">
         <is>
-          <t>MEDPF-2</t>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L211">
@@ -10972,7 +10977,7 @@
         <v>1</v>
       </c>
       <c r="H212">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="I212">
         <v>-1</v>
@@ -11019,7 +11024,7 @@
         <v>1</v>
       </c>
       <c r="H213">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I213">
         <v>-1</v>
@@ -11031,7 +11036,7 @@
       </c>
       <c r="K213" t="inlineStr">
         <is>
-          <t>MEDPF-1</t>
+          <t>MEDPF-2</t>
         </is>
       </c>
       <c r="L213">
@@ -11071,19 +11076,14 @@
         <v>1</v>
       </c>
       <c r="H214">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I214">
         <v>-1</v>
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>MEDPF-2</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L214">
@@ -11187,7 +11187,7 @@
       </c>
       <c r="K216" t="inlineStr">
         <is>
-          <t>MEDPF-1</t>
+          <t>MEDPF-2</t>
         </is>
       </c>
       <c r="L216">
@@ -11227,7 +11227,7 @@
         <v>1</v>
       </c>
       <c r="H217">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I217">
         <v>-1</v>
@@ -11279,14 +11279,19 @@
         <v>1</v>
       </c>
       <c r="H218">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="I218">
         <v>-1</v>
       </c>
       <c r="J218" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L218">
@@ -11326,7 +11331,7 @@
         <v>1</v>
       </c>
       <c r="H219">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I219">
         <v>-1</v>
@@ -11378,19 +11383,14 @@
         <v>1</v>
       </c>
       <c r="H220">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I220">
         <v>-1</v>
       </c>
       <c r="J220" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L220">
@@ -11430,7 +11430,7 @@
         <v>1</v>
       </c>
       <c r="H221">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I221">
         <v>-1</v>
@@ -11482,14 +11482,19 @@
         <v>1</v>
       </c>
       <c r="H222">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I222">
         <v>-1</v>
       </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L222">
@@ -11529,7 +11534,7 @@
         <v>1</v>
       </c>
       <c r="H223">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="I223">
         <v>-1</v>
@@ -11581,19 +11586,14 @@
         <v>1</v>
       </c>
       <c r="H224">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I224">
         <v>-1</v>
       </c>
       <c r="J224" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L224">
@@ -11633,7 +11633,7 @@
         <v>1</v>
       </c>
       <c r="H225">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I225">
         <v>-1</v>
@@ -11685,14 +11685,19 @@
         <v>1</v>
       </c>
       <c r="H226">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I226">
         <v>-1</v>
       </c>
       <c r="J226" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L226">
@@ -11732,7 +11737,7 @@
         <v>1</v>
       </c>
       <c r="H227">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I227">
         <v>-1</v>
@@ -11784,19 +11789,14 @@
         <v>1</v>
       </c>
       <c r="H228">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I228">
         <v>-1</v>
       </c>
       <c r="J228" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>MEDPF-2</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L228">
@@ -11888,7 +11888,7 @@
         <v>1</v>
       </c>
       <c r="H230">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I230">
         <v>-1</v>
@@ -11900,7 +11900,7 @@
       </c>
       <c r="K230" t="inlineStr">
         <is>
-          <t>MEDPF-1</t>
+          <t>MEDPF-2</t>
         </is>
       </c>
       <c r="L230">
@@ -11940,7 +11940,7 @@
         <v>1</v>
       </c>
       <c r="H231">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I231">
         <v>-1</v>
@@ -11992,7 +11992,7 @@
         <v>1</v>
       </c>
       <c r="H232">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I232">
         <v>-1</v>
@@ -12004,7 +12004,7 @@
       </c>
       <c r="K232" t="inlineStr">
         <is>
-          <t>MEDPF-3</t>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L232">
@@ -12044,7 +12044,7 @@
         <v>1</v>
       </c>
       <c r="H233">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I233">
         <v>-1</v>
@@ -12096,7 +12096,7 @@
         <v>1</v>
       </c>
       <c r="H234">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="I234">
         <v>-1</v>
@@ -12108,7 +12108,7 @@
       </c>
       <c r="K234" t="inlineStr">
         <is>
-          <t>MEDPF-1</t>
+          <t>MEDPF-3</t>
         </is>
       </c>
       <c r="L234">
@@ -12148,7 +12148,7 @@
         <v>1</v>
       </c>
       <c r="H235">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I235">
         <v>-1</v>
@@ -12200,14 +12200,19 @@
         <v>1</v>
       </c>
       <c r="H236">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I236">
         <v>-1</v>
       </c>
       <c r="J236" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L236">
@@ -12247,7 +12252,7 @@
         <v>1</v>
       </c>
       <c r="H237">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I237">
         <v>-1</v>
@@ -12299,7 +12304,7 @@
         <v>1</v>
       </c>
       <c r="H238">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="I238">
         <v>-1</v>
@@ -12346,7 +12351,7 @@
         <v>1</v>
       </c>
       <c r="H239">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I239">
         <v>-1</v>
@@ -12398,19 +12403,14 @@
         <v>1</v>
       </c>
       <c r="H240">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="I240">
         <v>-1</v>
       </c>
       <c r="J240" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>MEDPF-2</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L240">
@@ -12450,7 +12450,7 @@
         <v>1</v>
       </c>
       <c r="H241">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I241">
         <v>-1</v>
@@ -12462,10 +12462,114 @@
       </c>
       <c r="K241" t="inlineStr">
         <is>
+          <t>MEDPF-1</t>
+        </is>
+      </c>
+      <c r="L241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>LIOCDEP</t>
+        </is>
+      </c>
+      <c r="F242">
+        <v>1</v>
+      </c>
+      <c r="G242">
+        <v>1</v>
+      </c>
+      <c r="H242">
+        <v>23</v>
+      </c>
+      <c r="I242">
+        <v>-1</v>
+      </c>
+      <c r="J242" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
           <t>MEDPF-2</t>
         </is>
       </c>
-      <c r="L241">
+      <c r="L242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>LIOCDEP</t>
+        </is>
+      </c>
+      <c r="F243">
+        <v>1</v>
+      </c>
+      <c r="G243">
+        <v>1</v>
+      </c>
+      <c r="H243">
+        <v>27</v>
+      </c>
+      <c r="I243">
+        <v>-1</v>
+      </c>
+      <c r="J243" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>MEDPF-2</t>
+        </is>
+      </c>
+      <c r="L243">
         <v>0</v>
       </c>
     </row>
